--- a/data/trans_dic/P35A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces</t>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,32</t>
+          <t>0,79; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 17,48</t>
+          <t>3,34; 9,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 20,24</t>
+          <t>4,91; 11,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 19,69</t>
+          <t>4,19; 14,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 13,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 18,09</t>
+          <t>0,51; 4,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 24,1</t>
+          <t>0,69; 3,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,34</t>
+          <t>0,42; 3,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,61</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 17,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 4,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 5,81</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 5,77</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 6,76</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 20,25</t>
+          <t>5,8; 12,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 21,05</t>
+          <t>7,7; 13,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 22,65</t>
+          <t>8,85; 14,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 29,8</t>
+          <t>12,71; 21,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 14,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 21,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,58</t>
+          <t>1,36; 4,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,34</t>
+          <t>2,66; 7,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,81</t>
+          <t>2,19; 5,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 19,82</t>
+          <t>3,39; 8,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 25,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 7,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 9,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 9,11</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 13,52</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 23,44</t>
+          <t>9,44; 21,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 20,85</t>
+          <t>7,47; 15,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 26,45</t>
+          <t>12,18; 19,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 28,63</t>
+          <t>11,65; 21,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 17,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,43; 18,64</t>
+          <t>3,2; 8,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 18,59</t>
+          <t>4,96; 9,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,05</t>
+          <t>5,09; 9,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 17,53</t>
+          <t>9,48; 16,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 22,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 21,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 12,75</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 11,17</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 13,53</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 17,38</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,0</t>
+          <t>7,22; 14,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,0</t>
+          <t>4,97; 10,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,63</t>
+          <t>11,74; 20,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 12,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,06</t>
+          <t>2,04; 5,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,42</t>
+          <t>2,15; 6,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,24</t>
+          <t>4,35; 9,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 17,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 9,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 7,66</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,86; 14,01</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 12,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 11,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 13,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 17,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 4,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 5,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 5,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 8,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 7,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 7,79</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 8,99</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 12,16</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9896</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31262</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53045</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38332</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11551</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11331</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4364</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16786</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>42814</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>64376</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>42695</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2645; 24223</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17322; 51374</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35043; 80726</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18725; 65148</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2127; 19381</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4400; 23265</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3721; 28720</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15789</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6812; 30584</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25851; 67194</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44139; 92778</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24936; 73318</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>78666</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>123948</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>180081</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>174581</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27250</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50718</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51909</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58530</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>105916</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>174665</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>231990</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>233111</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53486; 111410</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>92353; 166886</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>142975; 235478</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>134964; 227856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13522; 49116</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32363; 90439</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32738; 75367</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36343; 89084</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>73474; 146094</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>134598; 224102</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>187415; 283186</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>184264; 288534</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100653</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>91372</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>164255</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>130810</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41777</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>65367</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81675</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>111505</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>142430</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>156739</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>245930</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>242315</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67569; 152413</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62839; 131317</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>130411; 210658</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>96180; 174328</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24546; 62881</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46218; 90298</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58925; 108266</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>84014; 149012</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>105741; 189011</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>119445; 197916</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>204325; 301454</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>191946; 297629</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>146390</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62300</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>167856</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47336</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29224</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>66581</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>193727</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>91524</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>234437</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>104927; 217230</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42201; 91220</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>127207; 218767</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28429; 76189</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16382; 47403</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42495; 96621</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>144961; 280899</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>65696; 123440</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>182472; 288582</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>335606</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>308883</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>397382</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>511579</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>123254</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>156860</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>144915</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>240979</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>458859</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>465742</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>542296</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>752558</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>272359; 423475</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>252857; 378657</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>344662; 468836</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>436706; 599777</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>90815; 160235</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>122336; 206237</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>113306; 186500</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>194892; 293719</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>384043; 555274</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>402826; 542086</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>473511; 624062</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>662859; 849896</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
